--- a/temp_doc/MAPEL.xlsx
+++ b/temp_doc/MAPEL.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF0D22A2-1452-7449-879D-0F4149E6A589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5FE2D-CF84-AC46-AD3F-65A394DB2C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>MTK ( X DKV )</t>
   </si>
@@ -180,6 +180,141 @@
   </si>
   <si>
     <t>F.1 ( XII DKV )</t>
+  </si>
+  <si>
+    <t>10012526</t>
+  </si>
+  <si>
+    <t>10022526</t>
+  </si>
+  <si>
+    <t>10032526</t>
+  </si>
+  <si>
+    <t>10042526</t>
+  </si>
+  <si>
+    <t>10052526</t>
+  </si>
+  <si>
+    <t>10062526</t>
+  </si>
+  <si>
+    <t>10072526</t>
+  </si>
+  <si>
+    <t>10082526</t>
+  </si>
+  <si>
+    <t>10092526</t>
+  </si>
+  <si>
+    <t>10102526</t>
+  </si>
+  <si>
+    <t>10112526</t>
+  </si>
+  <si>
+    <t>10122526</t>
+  </si>
+  <si>
+    <t>10132526</t>
+  </si>
+  <si>
+    <t>10142526</t>
+  </si>
+  <si>
+    <t>10152526</t>
+  </si>
+  <si>
+    <t>10162526</t>
+  </si>
+  <si>
+    <t>10172526</t>
+  </si>
+  <si>
+    <t>10182526</t>
+  </si>
+  <si>
+    <t>10192526</t>
+  </si>
+  <si>
+    <t>10202526</t>
+  </si>
+  <si>
+    <t>10212526</t>
+  </si>
+  <si>
+    <t>10222526</t>
+  </si>
+  <si>
+    <t>10232526</t>
+  </si>
+  <si>
+    <t>10242526</t>
+  </si>
+  <si>
+    <t>10252526</t>
+  </si>
+  <si>
+    <t>10262526</t>
+  </si>
+  <si>
+    <t>10272526</t>
+  </si>
+  <si>
+    <t>10282526</t>
+  </si>
+  <si>
+    <t>10292526</t>
+  </si>
+  <si>
+    <t>10302526</t>
+  </si>
+  <si>
+    <t>10312526</t>
+  </si>
+  <si>
+    <t>10322526</t>
+  </si>
+  <si>
+    <t>10332526</t>
+  </si>
+  <si>
+    <t>10342526</t>
+  </si>
+  <si>
+    <t>10352526</t>
+  </si>
+  <si>
+    <t>10362526</t>
+  </si>
+  <si>
+    <t>10372526</t>
+  </si>
+  <si>
+    <t>10382526</t>
+  </si>
+  <si>
+    <t>10392526</t>
+  </si>
+  <si>
+    <t>10402526</t>
+  </si>
+  <si>
+    <t>10412526</t>
+  </si>
+  <si>
+    <t>10422526</t>
+  </si>
+  <si>
+    <t>10432526</t>
+  </si>
+  <si>
+    <t>10442526</t>
+  </si>
+  <si>
+    <t>10452526</t>
   </si>
 </sst>
 </file>
@@ -554,7 +689,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,8 +711,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
       <c r="B2">
         <v>10102526</v>
@@ -587,8 +722,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1002</v>
+      <c r="A3" t="s">
+        <v>49</v>
       </c>
       <c r="B3">
         <v>10102526</v>
@@ -598,8 +733,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1003</v>
+      <c r="A4" t="s">
+        <v>50</v>
       </c>
       <c r="B4">
         <v>10102526</v>
@@ -609,8 +744,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1004</v>
+      <c r="A5" t="s">
+        <v>51</v>
       </c>
       <c r="B5">
         <v>10102526</v>
@@ -620,8 +755,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1005</v>
+      <c r="A6" t="s">
+        <v>52</v>
       </c>
       <c r="B6">
         <v>10102526</v>
@@ -631,8 +766,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1006</v>
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7">
         <v>10102526</v>
@@ -642,8 +777,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1007</v>
+      <c r="A8" t="s">
+        <v>54</v>
       </c>
       <c r="B8">
         <v>10102526</v>
@@ -653,8 +788,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1008</v>
+      <c r="A9" t="s">
+        <v>55</v>
       </c>
       <c r="B9">
         <v>10102526</v>
@@ -664,8 +799,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1009</v>
+      <c r="A10" t="s">
+        <v>56</v>
       </c>
       <c r="B10">
         <v>10102526</v>
@@ -675,8 +810,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1010</v>
+      <c r="A11" t="s">
+        <v>57</v>
       </c>
       <c r="B11">
         <v>10102526</v>
@@ -686,8 +821,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1011</v>
+      <c r="A12" t="s">
+        <v>58</v>
       </c>
       <c r="B12">
         <v>10102526</v>
@@ -697,8 +832,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1012</v>
+      <c r="A13" t="s">
+        <v>59</v>
       </c>
       <c r="B13">
         <v>10102526</v>
@@ -708,8 +843,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1013</v>
+      <c r="A14" t="s">
+        <v>60</v>
       </c>
       <c r="B14">
         <v>10102526</v>
@@ -719,8 +854,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1014</v>
+      <c r="A15" t="s">
+        <v>61</v>
       </c>
       <c r="B15">
         <v>10102526</v>
@@ -730,8 +865,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1015</v>
+      <c r="A16" t="s">
+        <v>62</v>
       </c>
       <c r="B16">
         <v>10102526</v>
@@ -741,8 +876,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1016</v>
+      <c r="A17" t="s">
+        <v>63</v>
       </c>
       <c r="B17">
         <v>10102526</v>
@@ -752,8 +887,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1017</v>
+      <c r="A18" t="s">
+        <v>64</v>
       </c>
       <c r="B18">
         <v>10192526</v>
@@ -763,8 +898,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1018</v>
+      <c r="A19" t="s">
+        <v>65</v>
       </c>
       <c r="B19">
         <v>10192526</v>
@@ -774,8 +909,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1019</v>
+      <c r="A20" t="s">
+        <v>66</v>
       </c>
       <c r="B20">
         <v>10192526</v>
@@ -785,8 +920,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1020</v>
+      <c r="A21" t="s">
+        <v>67</v>
       </c>
       <c r="B21">
         <v>10192526</v>
@@ -796,8 +931,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1021</v>
+      <c r="A22" t="s">
+        <v>68</v>
       </c>
       <c r="B22">
         <v>10192526</v>
@@ -807,8 +942,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1022</v>
+      <c r="A23" t="s">
+        <v>69</v>
       </c>
       <c r="B23">
         <v>10192526</v>
@@ -818,8 +953,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1023</v>
+      <c r="A24" t="s">
+        <v>70</v>
       </c>
       <c r="B24">
         <v>10192526</v>
@@ -829,8 +964,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1024</v>
+      <c r="A25" t="s">
+        <v>71</v>
       </c>
       <c r="B25">
         <v>10192526</v>
@@ -840,8 +975,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1025</v>
+      <c r="A26" t="s">
+        <v>72</v>
       </c>
       <c r="B26">
         <v>10192526</v>
@@ -851,8 +986,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1026</v>
+      <c r="A27" t="s">
+        <v>73</v>
       </c>
       <c r="B27">
         <v>10192526</v>
@@ -862,8 +997,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1027</v>
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
       <c r="B28">
         <v>10192526</v>
@@ -873,8 +1008,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1028</v>
+      <c r="A29" t="s">
+        <v>75</v>
       </c>
       <c r="B29">
         <v>10192526</v>
@@ -884,8 +1019,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1029</v>
+      <c r="A30" t="s">
+        <v>76</v>
       </c>
       <c r="B30">
         <v>10192526</v>
@@ -895,8 +1030,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1030</v>
+      <c r="A31" t="s">
+        <v>77</v>
       </c>
       <c r="B31">
         <v>10192526</v>
@@ -906,8 +1041,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1031</v>
+      <c r="A32" t="s">
+        <v>78</v>
       </c>
       <c r="B32">
         <v>10192526</v>
@@ -917,8 +1052,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1032</v>
+      <c r="A33" t="s">
+        <v>79</v>
       </c>
       <c r="B33">
         <v>10282526</v>
@@ -928,8 +1063,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1033</v>
+      <c r="A34" t="s">
+        <v>80</v>
       </c>
       <c r="B34">
         <v>10282526</v>
@@ -939,8 +1074,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1034</v>
+      <c r="A35" t="s">
+        <v>81</v>
       </c>
       <c r="B35">
         <v>10282526</v>
@@ -950,8 +1085,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1035</v>
+      <c r="A36" t="s">
+        <v>82</v>
       </c>
       <c r="B36">
         <v>10282526</v>
@@ -961,8 +1096,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1036</v>
+      <c r="A37" t="s">
+        <v>83</v>
       </c>
       <c r="B37">
         <v>10282526</v>
@@ -972,8 +1107,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1037</v>
+      <c r="A38" t="s">
+        <v>84</v>
       </c>
       <c r="B38">
         <v>10282526</v>
@@ -983,8 +1118,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1038</v>
+      <c r="A39" t="s">
+        <v>85</v>
       </c>
       <c r="B39">
         <v>10282526</v>
@@ -994,8 +1129,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1039</v>
+      <c r="A40" t="s">
+        <v>86</v>
       </c>
       <c r="B40">
         <v>10282526</v>
@@ -1005,8 +1140,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1040</v>
+      <c r="A41" t="s">
+        <v>87</v>
       </c>
       <c r="B41">
         <v>10282526</v>
@@ -1016,8 +1151,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1041</v>
+      <c r="A42" t="s">
+        <v>88</v>
       </c>
       <c r="B42">
         <v>10282526</v>
@@ -1027,8 +1162,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1042</v>
+      <c r="A43" t="s">
+        <v>89</v>
       </c>
       <c r="B43">
         <v>10282526</v>
@@ -1038,8 +1173,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1043</v>
+      <c r="A44" t="s">
+        <v>90</v>
       </c>
       <c r="B44">
         <v>10282526</v>
@@ -1049,8 +1184,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1044</v>
+      <c r="A45" t="s">
+        <v>91</v>
       </c>
       <c r="B45">
         <v>10282526</v>
@@ -1060,8 +1195,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1045</v>
+      <c r="A46" t="s">
+        <v>92</v>
       </c>
       <c r="B46">
         <v>10282526</v>

--- a/temp_doc/MAPEL.xlsx
+++ b/temp_doc/MAPEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF128A29-CEC5-8C4E-90F2-AA1A28A7C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396D576-980B-A747-B9AB-F39D1A393399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id_mapel</t>
   </si>
@@ -47,54 +47,6 @@
     <t>nama_mapel</t>
   </si>
   <si>
-    <t>BAHASA INDONESIA ( X AKL 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X AKL 1 )</t>
-  </si>
-  <si>
-    <t>MATEMATIKA ( X AKL 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X AKL 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X AKL 2 )</t>
-  </si>
-  <si>
-    <t>MATEMATIKA ( X AKL 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X MPLB 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X MPLB 1 )</t>
-  </si>
-  <si>
-    <t>MATEMATIKA ( X MPLB 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X MPLB 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X MPLB 2 )</t>
-  </si>
-  <si>
-    <t>MATEMATIKA ( X MPLB 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X PM )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X PM )</t>
-  </si>
-  <si>
-    <t>MATEMATIKA ( X PM )</t>
-  </si>
-  <si>
-    <t>10014750</t>
-  </si>
-  <si>
     <t>10029138</t>
   </si>
   <si>
@@ -122,19 +74,31 @@
     <t>10102478</t>
   </si>
   <si>
-    <t>10119042</t>
-  </si>
-  <si>
-    <t>10125149</t>
-  </si>
-  <si>
-    <t>10138692</t>
-  </si>
-  <si>
-    <t>10149516</t>
-  </si>
-  <si>
-    <t>10154050</t>
+    <t>CODING &amp; AI ( X AKL 1 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X AKL 2 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X PM )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X MPLB 1 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X MPLB 2 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X TJKT 1 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X TJKT 2 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X TJKT 3 )</t>
+  </si>
+  <si>
+    <t>CODING &amp; AI ( X TJKT 4 )</t>
   </si>
 </sst>
 </file>
@@ -513,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4DC37-752B-FA41-9A64-68D7A3795B3C}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,168 +504,117 @@
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>10012526</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>10012526</v>
+        <v>10022526</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>10012526</v>
+        <v>10032526</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>10022526</v>
+        <v>10042526</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>10022526</v>
+        <v>10052526</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>10022526</v>
+        <v>10062526</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>10042526</v>
+        <v>10072526</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>10042526</v>
+        <v>10082526</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>10042526</v>
+        <v>10092526</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10052526</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10052526</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10052526</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10032526</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10032526</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10032526</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
